--- a/saves/Lentejas y cosas_full.xlsx
+++ b/saves/Lentejas y cosas_full.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://correoucuedu-my.sharepoint.com/personal/jose_torres_correo_ucu_edu_uy/Documents/VS CODE/Programacion II/food_formulator/saves/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="11_9C3D2CFC05F4D8314FDEF7B4205BDA1636430E38" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{33E78F19-268E-4A61-A77E-EB517FF48209}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_9C3D2CFC7BA45F338F7FE7B4205BDA1636430EF9" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A1E5F943-06AC-477E-9250-35E1E656A49E}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1578,13 +1578,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:FT10"/>
+  <dimension ref="A1:FT13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="6" ySplit="2" topLeftCell="CA3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="2" topLeftCell="G3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E4" sqref="E4"/>
+      <selection pane="bottomRight" activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2331,11 +2331,11 @@
         <v>185</v>
       </c>
       <c r="E3" s="8">
-        <v>1</v>
+        <v>150</v>
       </c>
       <c r="F3" s="9">
         <f t="shared" ref="F3:F9" si="0">E3/SUM($E$3:$E$9)</f>
-        <v>4.3846215866090539E-3</v>
+        <v>0.39780427650680505</v>
       </c>
       <c r="G3">
         <v>75.8</v>
@@ -2638,7 +2638,7 @@
       </c>
       <c r="F4" s="9">
         <f t="shared" si="0"/>
-        <v>0.51069020108179064</v>
+        <v>0.3088898200944038</v>
       </c>
       <c r="G4">
         <v>99.98</v>
@@ -2653,6 +2653,9 @@
         <v>0</v>
       </c>
       <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
@@ -2869,7 +2872,7 @@
       </c>
       <c r="F5" s="9">
         <f t="shared" si="0"/>
-        <v>0.17392332293549259</v>
+        <v>0.10519713089846629</v>
       </c>
       <c r="G5">
         <v>10.58</v>
@@ -2884,6 +2887,9 @@
         <v>3.99</v>
       </c>
       <c r="L5">
+        <v>1.24</v>
+      </c>
+      <c r="M5">
         <v>1.24</v>
       </c>
       <c r="N5">
@@ -3259,7 +3265,7 @@
       </c>
       <c r="F6" s="9">
         <f t="shared" si="0"/>
-        <v>0.13153864759827161</v>
+        <v>7.9560855301361005E-2</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -3274,6 +3280,9 @@
         <v>0</v>
       </c>
       <c r="L6">
+        <v>100</v>
+      </c>
+      <c r="M6">
         <v>100</v>
       </c>
       <c r="N6">
@@ -3583,7 +3592,10 @@
       </c>
       <c r="F7" s="9">
         <f t="shared" si="0"/>
-        <v>2.192310793304527E-2</v>
+        <v>1.3260142550226834E-2</v>
+      </c>
+      <c r="L7">
+        <v>94.6</v>
       </c>
       <c r="M7">
         <v>94.6</v>
@@ -3715,7 +3727,7 @@
       </c>
       <c r="F8" s="9">
         <f t="shared" si="0"/>
-        <v>1.3724510824013799E-2</v>
+        <v>8.3012395192488854E-3</v>
       </c>
       <c r="G8">
         <v>0.2</v>
@@ -3730,6 +3742,9 @@
         <v>0</v>
       </c>
       <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
@@ -4009,7 +4024,7 @@
       </c>
       <c r="F9" s="9">
         <f t="shared" si="0"/>
-        <v>0.14381558804077701</v>
+        <v>8.6986535129488063E-2</v>
       </c>
       <c r="G9">
         <v>9.4510000000000005</v>
@@ -4021,6 +4036,9 @@
         <v>23.568750000000001</v>
       </c>
       <c r="L9">
+        <v>1.925</v>
+      </c>
+      <c r="M9">
         <v>1.925</v>
       </c>
       <c r="N9">
@@ -4084,78 +4102,78 @@
       </c>
       <c r="E10" s="10">
         <f>SUBTOTAL(9,E3:E9)</f>
-        <v>228.06985283611957</v>
+        <v>377.06985283611959</v>
       </c>
       <c r="F10" s="11" t="s">
         <v>195</v>
       </c>
       <c r="G10" s="12">
         <f>SUMPRODUCT($F$3:$F$9,$G$3:$G$9)</f>
-        <v>54.593215401818092</v>
+        <v>62.973124008572732</v>
       </c>
       <c r="H10" s="12">
         <f>SUMPRODUCT($F$3:$F$9,$H$3:$H$9)</f>
-        <v>159.8881492367569</v>
+        <v>155.19052034133145</v>
       </c>
       <c r="I10" s="12">
         <f>SUMPRODUCT($F$3:$F$9,$I$3:$I$9)</f>
-        <v>669.27740822317924</v>
+        <v>648.61987284434576</v>
       </c>
       <c r="J10" s="12">
         <f>SUMPRODUCT($F$3:$F$9,$J$3:$J$9)</f>
-        <v>0.55105397945912205</v>
+        <v>1.1196567342218415</v>
       </c>
       <c r="K10" s="12">
         <f>SUMPRODUCT($F$3:$F$9,$K$3:$K$9)</f>
-        <v>4.1378770068226309</v>
+        <v>7.4026734808023846</v>
       </c>
       <c r="L10" s="12">
         <f>SUMPRODUCT($F$3:$F$9,$L$3:$L$9)</f>
-        <v>13.690045518248294</v>
+        <v>13.470519131833701</v>
       </c>
       <c r="M10" s="12">
         <f>SUMPRODUCT($F$3:$F$9,$M$3:$M$9)</f>
-        <v>2.1118529871902507</v>
+        <v>12.949395529609784</v>
       </c>
       <c r="N10" s="12">
         <f>SUMPRODUCT($F$3:$F$9,$N$3:$N$9)</f>
-        <v>2.4500695411382942</v>
+        <v>1.8177984650063534</v>
       </c>
       <c r="O10" s="12">
         <f>SUMPRODUCT($F$3:$F$9,$O$3:$O$9)</f>
-        <v>51.814599137271351</v>
+        <v>31.339943809127607</v>
       </c>
       <c r="P10" s="12">
         <f>SUMPRODUCT($F$3:$F$9,$P$3:$P$9)</f>
-        <v>50.469606994796393</v>
+        <v>30.526428335289609</v>
       </c>
       <c r="Q10" s="12">
         <f>SUMPRODUCT($F$3:$F$9,$Q$3:$Q$9)</f>
-        <v>22.961884710074649</v>
+        <v>14.267790506723117</v>
       </c>
       <c r="R10" s="12">
         <f>SUMPRODUCT($F$3:$F$9,$R$3:$R$9)</f>
-        <v>8.7692431732181082E-4</v>
+        <v>7.9560855301361019E-2</v>
       </c>
       <c r="S10" s="12">
         <f>SUMPRODUCT($F$3:$F$9,$S$3:$S$9)</f>
-        <v>9.2353284478746573</v>
+        <v>5.5859676507085601</v>
       </c>
       <c r="T10" s="12">
         <f>SUMPRODUCT($F$3:$F$9,$T$3:$T$9)</f>
-        <v>8.7692431732181082E-4</v>
+        <v>7.9560855301361019E-2</v>
       </c>
       <c r="U10" s="12">
         <f>SUMPRODUCT($F$3:$F$9,$U$3:$U$9)</f>
-        <v>3.4784664587098517E-3</v>
+        <v>2.1039426179693256E-3</v>
       </c>
       <c r="V10" s="12">
         <f>SUMPRODUCT($F$3:$F$9,$V$3:$V$9)</f>
-        <v>0.18175718017023412</v>
+        <v>0.18896587143576596</v>
       </c>
       <c r="W10" s="12">
         <f>SUMPRODUCT($F$3:$F$9,$W$3:$W$9)</f>
-        <v>0.1930548884583968</v>
+        <v>0.11676881529729759</v>
       </c>
       <c r="X10" s="12">
         <f>SUMPRODUCT($F$3:$F$9,$X$3:$X$9)</f>
@@ -4167,11 +4185,11 @@
       </c>
       <c r="Z10" s="12">
         <f>SUMPRODUCT($F$3:$F$9,$Z$3:$Z$9)</f>
-        <v>5.3398727839540507</v>
+        <v>3.2298100493578921</v>
       </c>
       <c r="AA10" s="12">
         <f>SUMPRODUCT($F$3:$F$9,$AA$3:$AA$9)</f>
-        <v>0.37741361077001889</v>
+        <v>0.22827777404967184</v>
       </c>
       <c r="AB10" s="12">
         <f>SUMPRODUCT($F$3:$F$9,$AB$3:$AB$9)</f>
@@ -4179,119 +4197,119 @@
       </c>
       <c r="AC10" s="12">
         <f>SUMPRODUCT($F$3:$F$9,$AC$3:$AC$9)</f>
-        <v>2.3010494086524322</v>
+        <v>1.391784562071809</v>
       </c>
       <c r="AD10" s="12">
         <f>SUMPRODUCT($F$3:$F$9,$AD$3:$AD$9)</f>
-        <v>188.81291580843711</v>
+        <v>133.1703755797547</v>
       </c>
       <c r="AE10" s="12">
         <f>SUMPRODUCT($F$3:$F$9,$AE$3:$AE$9)</f>
-        <v>2.488325432640742</v>
+        <v>2.1649622983398316</v>
       </c>
       <c r="AF10" s="12">
         <f>SUMPRODUCT($F$3:$F$9,$AF$3:$AF$9)</f>
-        <v>26.865612219155402</v>
+        <v>20.754340784109985</v>
       </c>
       <c r="AG10" s="12">
         <f>SUMPRODUCT($F$3:$F$9,$AG$3:$AG$9)</f>
-        <v>65.667366731841895</v>
+        <v>112.42677277913072</v>
       </c>
       <c r="AH10" s="12">
         <f>SUMPRODUCT($F$3:$F$9,$AH$3:$AH$9)</f>
-        <v>212.11612981311509</v>
+        <v>180.45806101666244</v>
       </c>
       <c r="AI10" s="12">
         <f>SUMPRODUCT($F$3:$F$9,$AI$3:$AI$9)</f>
-        <v>535.26082033331795</v>
+        <v>374.72594390559959</v>
       </c>
       <c r="AJ10" s="12">
         <f>SUMPRODUCT($F$3:$F$9,$AJ$3:$AJ$9)</f>
-        <v>0.88064867942326974</v>
+        <v>1.0226471615697688</v>
       </c>
       <c r="AK10" s="12">
         <f>SUMPRODUCT($F$3:$F$9,$AK$3:$AK$9)</f>
-        <v>0.18340650975037975</v>
+        <v>0.11093301512527756</v>
       </c>
       <c r="AL10" s="12">
         <f>SUMPRODUCT($F$3:$F$9,$AL$3:$AL$9)</f>
-        <v>3.2647638671096946</v>
+        <v>1.9746850858427039</v>
       </c>
       <c r="AM10" s="12">
         <f>SUMPRODUCT($F$3:$F$9,$AM$3:$AM$9)</f>
-        <v>0.21528491990250456</v>
+        <v>19.53218997648413</v>
       </c>
       <c r="AN10" s="12">
         <f>SUMPRODUCT($F$3:$F$9,$AN$3:$AN$9)</f>
-        <v>0.67689648352596998</v>
+        <v>12.698654229098807</v>
       </c>
       <c r="AO10" s="12">
         <f>SUMPRODUCT($F$3:$F$9,$AO$3:$AO$9)</f>
-        <v>2.7449021648027597E-2</v>
+        <v>1.6602479038497771E-2</v>
       </c>
       <c r="AP10" s="12">
         <f>SUMPRODUCT($F$3:$F$9,$AP$3:$AP$9)</f>
-        <v>4.163928966749734E-3</v>
+        <v>3.2945266170790244E-2</v>
       </c>
       <c r="AQ10" s="12">
         <f>SUMPRODUCT($F$3:$F$9,$AQ$3:$AQ$9)</f>
-        <v>8.96801268514439E-3</v>
+        <v>0.17099307422318843</v>
       </c>
       <c r="AR10" s="12">
         <f>SUMPRODUCT($F$3:$F$9,$AR$3:$AR$9)</f>
-        <v>0.23166586615007614</v>
+        <v>0.14012257835675709</v>
       </c>
       <c r="AS10" s="12">
         <f>SUMPRODUCT($F$3:$F$9,$AS$3:$AS$9)</f>
-        <v>2.7756116183764199E-2</v>
+        <v>4.1682816101886393E-2</v>
       </c>
       <c r="AT10" s="12">
         <f>SUMPRODUCT($F$3:$F$9,$AT$3:$AT$9)</f>
-        <v>1.3548480702621983</v>
+        <v>28.875286417373957</v>
       </c>
       <c r="AU10" s="12">
         <f>SUMPRODUCT($F$3:$F$9,$AU$3:$AU$9)</f>
-        <v>3.4083125133241063</v>
+        <v>134.43751324072309</v>
       </c>
       <c r="AV10" s="12">
         <f>SUMPRODUCT($F$3:$F$9,$AV$3:$AV$9)</f>
-        <v>2.6307729519654322E-3</v>
+        <v>0.23868256590408302</v>
       </c>
       <c r="AW10" s="12">
         <f>SUMPRODUCT($F$3:$F$9,$AW$3:$AW$9)</f>
-        <v>1.3548480702621977</v>
+        <v>122.92152144060276</v>
       </c>
       <c r="AX10" s="12">
         <f>SUMPRODUCT($F$3:$F$9,$AX$3:$AX$9)</f>
-        <v>8.7692431732181082E-4</v>
+        <v>7.9560855301361019E-2</v>
       </c>
       <c r="AY10" s="12">
         <f>SUMPRODUCT($F$3:$F$9,$AY$3:$AY$9)</f>
-        <v>8.7692431732181082E-4</v>
+        <v>7.9560855301361019E-2</v>
       </c>
       <c r="AZ10" s="12">
         <f>SUMPRODUCT($F$3:$F$9,$AZ$3:$AZ$9)</f>
-        <v>0.11005400182388726</v>
+        <v>9.9848873403208067</v>
       </c>
       <c r="BA10" s="12">
         <f>SUMPRODUCT($F$3:$F$9,$BA$3:$BA$9)</f>
-        <v>0.67961634592440379</v>
+        <v>0.52961009345606003</v>
       </c>
       <c r="BB10" s="12">
         <f>SUMPRODUCT($F$3:$F$9,$BB$3:$BB$9)</f>
-        <v>4.4723140183412355E-3</v>
+        <v>0.40576036203694116</v>
       </c>
       <c r="BC10" s="12">
         <f>SUMPRODUCT($F$3:$F$9,$BC$3:$BC$9)</f>
-        <v>3.3980817296220187</v>
+        <v>73.182726734701902</v>
       </c>
       <c r="BD10" s="12">
         <f>SUMPRODUCT($F$3:$F$9,$BD$3:$BD$9)</f>
-        <v>0.78484726400302063</v>
+        <v>71.206965494718105</v>
       </c>
       <c r="BE10" s="12">
         <f>SUMPRODUCT($F$3:$F$9,$BE$3:$BE$9)</f>
-        <v>19.47941216877517</v>
+        <v>11.782078660628224</v>
       </c>
       <c r="BF10" s="12">
         <f>SUMPRODUCT($F$3:$F$9,$BF$3:$BF$9)</f>
@@ -4303,19 +4321,19 @@
       </c>
       <c r="BH10" s="12">
         <f>SUMPRODUCT($F$3:$F$9,$BH$3:$BH$9)</f>
-        <v>0.17392332293549259</v>
+        <v>0.10519713089846629</v>
       </c>
       <c r="BI10" s="12">
         <f>SUMPRODUCT($F$3:$F$9,$BI$3:$BI$9)</f>
-        <v>22.493108739304464</v>
+        <v>18.741885480490616</v>
       </c>
       <c r="BJ10" s="12">
         <f>SUMPRODUCT($F$3:$F$9,$BJ$3:$BJ$9)</f>
-        <v>5.7000080625917701E-2</v>
+        <v>5.1714555945884655</v>
       </c>
       <c r="BK10" s="12">
         <f>SUMPRODUCT($F$3:$F$9,$BK$3:$BK$9)</f>
-        <v>2.6088498440323891</v>
+        <v>1.5779569634769943</v>
       </c>
       <c r="BL10" s="12">
         <f>SUMPRODUCT($F$3:$F$9,$BL$3:$BL$9)</f>
@@ -4327,23 +4345,23 @@
       </c>
       <c r="BN10" s="12">
         <f>SUMPRODUCT($F$3:$F$9,$BN$3:$BN$9)</f>
-        <v>0.24992343043671608</v>
+        <v>22.674843760887889</v>
       </c>
       <c r="BO10" s="12">
         <f>SUMPRODUCT($F$3:$F$9,$BO$3:$BO$9)</f>
-        <v>1.0084629649200825</v>
+        <v>91.494983596565163</v>
       </c>
       <c r="BP10" s="12">
         <f>SUMPRODUCT($F$3:$F$9,$BP$3:$BP$9)</f>
-        <v>1.0040783433334732</v>
+        <v>91.097179320058359</v>
       </c>
       <c r="BQ10" s="12">
         <f>SUMPRODUCT($F$3:$F$9,$BQ$3:$BQ$9)</f>
-        <v>0.43144676412233091</v>
+        <v>39.143940808269619</v>
       </c>
       <c r="BR10" s="12">
         <f>SUMPRODUCT($F$3:$F$9,$BR$3:$BR$9)</f>
-        <v>1.0786169103058272E-2</v>
+        <v>0.97859852020674043</v>
       </c>
       <c r="BS10" s="12">
         <f>SUMPRODUCT($F$3:$F$9,$BS$3:$BS$9)</f>
@@ -4351,19 +4369,19 @@
       </c>
       <c r="BT10" s="12">
         <f>SUMPRODUCT($F$3:$F$9,$BT$3:$BT$9)</f>
-        <v>1.0786169103058272E-2</v>
+        <v>0.97859852020674043</v>
       </c>
       <c r="BU10" s="12">
         <f>SUMPRODUCT($F$3:$F$9,$BU$3:$BU$9)</f>
-        <v>2.4553880885010704E-3</v>
+        <v>0.22277039484381086</v>
       </c>
       <c r="BV10" s="12">
         <f>SUMPRODUCT($F$3:$F$9,$BV$3:$BV$9)</f>
-        <v>0.66090862715487186</v>
+        <v>0.39974909741417186</v>
       </c>
       <c r="BW10" s="12">
         <f>SUMPRODUCT($F$3:$F$9,$BW$3:$BW$9)</f>
-        <v>6.2264549610906342E-2</v>
+        <v>3.7660572861650927E-2</v>
       </c>
       <c r="BX10" s="12">
         <f>SUMPRODUCT($F$3:$F$9,$BX$3:$BX$9)</f>
@@ -4371,11 +4389,11 @@
       </c>
       <c r="BY10" s="12">
         <f>SUMPRODUCT($F$3:$F$9,$BY$3:$BY$9)</f>
-        <v>1.0435399376129555</v>
+        <v>0.63118278539079775</v>
       </c>
       <c r="BZ10" s="12">
         <f>SUMPRODUCT($F$3:$F$9,$BZ$3:$BZ$9)</f>
-        <v>1.0435399376129555</v>
+        <v>0.63118278539079775</v>
       </c>
       <c r="CA10" s="12">
         <f>SUMPRODUCT($F$3:$F$9,$CA$3:$CA$9)</f>
@@ -4383,15 +4401,15 @@
       </c>
       <c r="CB10" s="12">
         <f>SUMPRODUCT($F$3:$F$9,$CB$3:$CB$9)</f>
-        <v>51.307380265970316</v>
+        <v>31.033153615047556</v>
       </c>
       <c r="CC10" s="12">
         <f>SUMPRODUCT($F$3:$F$9,$CC$3:$CC$9)</f>
-        <v>38.610977691679352</v>
+        <v>23.353763059459517</v>
       </c>
       <c r="CD10" s="12">
         <f>SUMPRODUCT($F$3:$F$9,$CD$3:$CD$9)</f>
-        <v>2.967628813059318</v>
+        <v>1.7949636163589724</v>
       </c>
       <c r="CE10" s="12">
         <f>SUMPRODUCT($F$3:$F$9,$CE$3:$CE$9)</f>
@@ -4399,27 +4417,27 @@
       </c>
       <c r="CF10" s="12">
         <f>SUMPRODUCT($F$3:$F$9,$CF$3:$CF$9)</f>
-        <v>14.805113249344133</v>
+        <v>8.9548394670191875</v>
       </c>
       <c r="CG10" s="12">
         <f>SUMPRODUCT($F$3:$F$9,$CG$3:$CG$9)</f>
-        <v>4.0776980755464202E-2</v>
+        <v>2.466386514342191E-2</v>
       </c>
       <c r="CH10" s="12">
         <f>SUMPRODUCT($F$3:$F$9,$CH$3:$CH$9)</f>
-        <v>6.9554129152696751</v>
+        <v>4.2069658660551674</v>
       </c>
       <c r="CI10" s="12">
         <f>SUMPRODUCT($F$3:$F$9,$CI$3:$CI$9)</f>
-        <v>0.6577516996125129</v>
+        <v>0.39783963688693896</v>
       </c>
       <c r="CJ10" s="12">
         <f>SUMPRODUCT($F$3:$F$9,$CJ$3:$CJ$9)</f>
-        <v>3.9461594279481477E-3</v>
+        <v>2.3868256590408301E-3</v>
       </c>
       <c r="CK10" s="12">
         <f>SUMPRODUCT($F$3:$F$9,$CK$3:$CK$9)</f>
-        <v>3.5076972692872431E-2</v>
+        <v>2.1216228080362935E-2</v>
       </c>
       <c r="CL10" s="12">
         <f>SUMPRODUCT($F$3:$F$9,$CL$3:$CL$9)</f>
@@ -4427,7 +4445,7 @@
       </c>
       <c r="CM10" s="12">
         <f>SUMPRODUCT($F$3:$F$9,$CM$3:$CM$9)</f>
-        <v>1.3153864759827161E-3</v>
+        <v>7.9560855301361011E-4</v>
       </c>
       <c r="CN10" s="12">
         <f>SUMPRODUCT($F$3:$F$9,$CN$3:$CN$9)</f>
@@ -4439,63 +4457,63 @@
       </c>
       <c r="CP10" s="12">
         <f>SUMPRODUCT($F$3:$F$9,$CP$3:$CP$9)</f>
-        <v>1.3694707832535389</v>
+        <v>2.0928085182746505</v>
       </c>
       <c r="CQ10" s="12">
         <f>SUMPRODUCT($F$3:$F$9,$CQ$3:$CQ$9)</f>
-        <v>3.3498508921693182E-3</v>
+        <v>1.4671021717570971E-2</v>
       </c>
       <c r="CR10" s="12">
         <f>SUMPRODUCT($F$3:$F$9,$CR$3:$CR$9)</f>
-        <v>0.81942146675396188</v>
+        <v>1.4123784474618142</v>
       </c>
       <c r="CS10" s="12">
         <f>SUMPRODUCT($F$3:$F$9,$CS$3:$CS$9)</f>
-        <v>0.37368229779981438</v>
+        <v>0.5472796754089887</v>
       </c>
       <c r="CT10" s="12">
         <f>SUMPRODUCT($F$3:$F$9,$CT$3:$CT$9)</f>
-        <v>8.8664414645500589</v>
+        <v>6.7972498483296571</v>
       </c>
       <c r="CU10" s="12">
         <f>SUMPRODUCT($F$3:$F$9,$CU$3:$CU$9)</f>
-        <v>2.7973885722565764E-3</v>
+        <v>9.5738229212637749E-2</v>
       </c>
       <c r="CV10" s="12">
         <f>SUMPRODUCT($F$3:$F$9,$CV$3:$CV$9)</f>
-        <v>8.6444042274041735</v>
+        <v>6.5523084951418671</v>
       </c>
       <c r="CW10" s="12">
         <f>SUMPRODUCT($F$3:$F$9,$CW$3:$CW$9)</f>
-        <v>4.9843384349012094</v>
+        <v>3.7339429889274478</v>
       </c>
       <c r="CX10" s="12">
         <f>SUMPRODUCT($F$3:$F$9,$CX$3:$CX$9)</f>
-        <v>1.1222877413084533</v>
+        <v>1.2557354995064811</v>
       </c>
       <c r="CY10" s="12">
         <f>SUMPRODUCT($F$3:$F$9,$CY$3:$CY$9)</f>
-        <v>3.5741681325402368</v>
+        <v>2.7387498423238505</v>
       </c>
       <c r="CZ10" s="12">
         <f>SUMPRODUCT($F$3:$F$9,$CZ$3:$CZ$9)</f>
-        <v>0.14517920535421239</v>
+        <v>9.2157990724076502E-2</v>
       </c>
       <c r="DA10" s="12">
         <f>SUMPRODUCT($F$3:$F$9,$DA$3:$DA$9)</f>
-        <v>4.8230837452699591E-5</v>
+        <v>4.3758470415748551E-3</v>
       </c>
       <c r="DB10" s="12">
         <f>SUMPRODUCT($F$3:$F$9,$DB$3:$DB$9)</f>
-        <v>8.7692431732181079E-5</v>
+        <v>7.9560855301361016E-3</v>
       </c>
       <c r="DC10" s="12">
         <f>SUMPRODUCT($F$3:$F$9,$DC$3:$DC$9)</f>
-        <v>8.7692431732181079E-5</v>
+        <v>7.9560855301361016E-3</v>
       </c>
       <c r="DD10" s="12">
         <f>SUMPRODUCT($F$3:$F$9,$DD$3:$DD$9)</f>
-        <v>1.8020794720963211</v>
+        <v>163.49755764429688</v>
       </c>
       <c r="DE10" s="12">
         <f>SUMPRODUCT($F$3:$F$9,$DE$3:$DE$9)</f>
@@ -4511,23 +4529,23 @@
       </c>
       <c r="DH10" s="12">
         <f>SUMPRODUCT($F$3:$F$9,$DH$3:$DH$9)</f>
-        <v>5.217699688064778E-4</v>
+        <v>3.1559139269539887E-4</v>
       </c>
       <c r="DI10" s="12">
         <f>SUMPRODUCT($F$3:$F$9,$DI$3:$DI$9)</f>
-        <v>1.0435399376129556E-3</v>
+        <v>6.3118278539079774E-4</v>
       </c>
       <c r="DJ10" s="12">
         <f>SUMPRODUCT($F$3:$F$9,$DJ$3:$DJ$9)</f>
-        <v>2.8323193908965618E-2</v>
+        <v>1.7131220165389722E-2</v>
       </c>
       <c r="DK10" s="12">
         <f>SUMPRODUCT($F$3:$F$9,$DK$3:$DK$9)</f>
-        <v>8.1645073947498137</v>
+        <v>4.9382839439282566</v>
       </c>
       <c r="DL10" s="12">
         <f>SUMPRODUCT($F$3:$F$9,$DL$3:$DL$9)</f>
-        <v>0.17323639888692369</v>
+        <v>0.10478164643189244</v>
       </c>
       <c r="DM10" s="12">
         <f>SUMPRODUCT($F$3:$F$9,$DM$3:$DM$9)</f>
@@ -4535,11 +4553,11 @@
       </c>
       <c r="DN10" s="12">
         <f>SUMPRODUCT($F$3:$F$9,$DN$3:$DN$9)</f>
-        <v>2.5075446238143133</v>
+        <v>1.5166827287618982</v>
       </c>
       <c r="DO10" s="12">
         <f>SUMPRODUCT($F$3:$F$9,$DO$3:$DO$9)</f>
-        <v>1.2037817796576982</v>
+        <v>0.7281047033284187</v>
       </c>
       <c r="DP10" s="12">
         <f>SUMPRODUCT($F$3:$F$9,$DP$3:$DP$9)</f>
@@ -4563,7 +4581,7 @@
       </c>
       <c r="DU10" s="12">
         <f>SUMPRODUCT($F$3:$F$9,$DU$3:$DU$9)</f>
-        <v>5.1957765801317286E-2</v>
+        <v>3.1426537844037601E-2</v>
       </c>
       <c r="DV10" s="12">
         <f>SUMPRODUCT($F$3:$F$9,$DV$3:$DV$9)</f>
@@ -4571,23 +4589,23 @@
       </c>
       <c r="DW10" s="12">
         <f>SUMPRODUCT($F$3:$F$9,$DW$3:$DW$9)</f>
-        <v>3.069235110626338E-4</v>
+        <v>1.8564199570317568E-4</v>
       </c>
       <c r="DX10" s="12">
         <f>SUMPRODUCT($F$3:$F$9,$DX$3:$DX$9)</f>
-        <v>2.5538959201468887E-2</v>
+        <v>1.5447182061510923E-2</v>
       </c>
       <c r="DY10" s="12">
         <f>SUMPRODUCT($F$3:$F$9,$DY$3:$DY$9)</f>
-        <v>9.1945514671191858E-2</v>
+        <v>5.5613037855651345E-2</v>
       </c>
       <c r="DZ10" s="12">
         <f>SUMPRODUCT($F$3:$F$9,$DZ$3:$DZ$9)</f>
-        <v>5.0116224734941484E-2</v>
+        <v>3.0312685869818546E-2</v>
       </c>
       <c r="EA10" s="12">
         <f>SUMPRODUCT($F$3:$F$9,$EA$3:$EA$9)</f>
-        <v>2.7184653836976134E-3</v>
+        <v>1.6442576762281274E-3</v>
       </c>
       <c r="EB10" s="12">
         <f>SUMPRODUCT($F$3:$F$9,$EB$3:$EB$9)</f>
@@ -4607,7 +4625,7 @@
       </c>
       <c r="EF10" s="12">
         <f>SUMPRODUCT($F$3:$F$9,$EF$3:$EF$9)</f>
-        <v>1.3489127541744579</v>
+        <v>0.8158868470109204</v>
       </c>
       <c r="EG10" s="12">
         <f>SUMPRODUCT($F$3:$F$9,$EG$3:$EG$9)</f>
@@ -4619,99 +4637,99 @@
       </c>
       <c r="EI10" s="12">
         <f>SUMPRODUCT($F$3:$F$9,$EI$3:$EI$9)</f>
-        <v>3.9461594279481477E-3</v>
+        <v>2.3868256590408301E-3</v>
       </c>
       <c r="EJ10" s="12">
         <f>SUMPRODUCT($F$3:$F$9,$EJ$3:$EJ$9)</f>
-        <v>3.9461594279481477E-3</v>
+        <v>2.3868256590408301E-3</v>
       </c>
       <c r="EK10" s="12">
         <f>SUMPRODUCT($F$3:$F$9,$EK$3:$EK$9)</f>
-        <v>4.5220063963228077</v>
+        <v>2.7351254033601236</v>
       </c>
       <c r="EL10" s="12">
         <f>SUMPRODUCT($F$3:$F$9,$EL$3:$EL$9)</f>
-        <v>4.8011606373369133E-2</v>
+        <v>2.9039712184996767E-2</v>
       </c>
       <c r="EM10" s="12">
         <f>SUMPRODUCT($F$3:$F$9,$EM$3:$EM$9)</f>
-        <v>4.8011606373369133E-2</v>
+        <v>2.9039712184996767E-2</v>
       </c>
       <c r="EN10" s="12">
         <f>SUMPRODUCT($F$3:$F$9,$EN$3:$EN$9)</f>
-        <v>5.4807769832613173E-4</v>
+        <v>3.3150356375567086E-4</v>
       </c>
       <c r="EO10" s="12">
         <f>SUMPRODUCT($F$3:$F$9,$EO$3:$EO$9)</f>
-        <v>1.3153864759827162E-2</v>
+        <v>7.9560855301360998E-3</v>
       </c>
       <c r="EP10" s="12">
         <f>SUMPRODUCT($F$3:$F$9,$EP$3:$EP$9)</f>
-        <v>9.2500900072162405E-3</v>
+        <v>7.1190169314154492E-2</v>
       </c>
       <c r="EQ10" s="12">
         <f>SUMPRODUCT($F$3:$F$9,$EQ$3:$EQ$9)</f>
-        <v>2.6258037141672772E-2</v>
+        <v>0.25060255004723359</v>
       </c>
       <c r="ER10" s="12">
         <f>SUMPRODUCT($F$3:$F$9,$ER$3:$ER$9)</f>
-        <v>2.8093732045933094E-2</v>
+        <v>0.26040621543936798</v>
       </c>
       <c r="ES10" s="12">
         <f>SUMPRODUCT($F$3:$F$9,$ES$3:$ES$9)</f>
-        <v>4.8606453368619129E-2</v>
+        <v>0.44430936444945729</v>
       </c>
       <c r="ET10" s="12">
         <f>SUMPRODUCT($F$3:$F$9,$ET$3:$ET$9)</f>
-        <v>4.5911372633383435E-2</v>
+        <v>0.35653606086198908</v>
       </c>
       <c r="EU10" s="12">
         <f>SUMPRODUCT($F$3:$F$9,$EU$3:$EU$9)</f>
-        <v>1.5398791012171007E-2</v>
+        <v>0.17448756378992486</v>
       </c>
       <c r="EV10" s="12">
         <f>SUMPRODUCT($F$3:$F$9,$EV$3:$EV$9)</f>
-        <v>2.828665539574389E-2</v>
+        <v>0.27790960360566741</v>
       </c>
       <c r="EW10" s="12">
         <f>SUMPRODUCT($F$3:$F$9,$EW$3:$EW$9)</f>
-        <v>2.5898498171570829E-2</v>
+        <v>0.21798259937367562</v>
       </c>
       <c r="EX10" s="12">
         <f>SUMPRODUCT($F$3:$F$9,$EX$3:$EX$9)</f>
-        <v>4.2177136582121383E-2</v>
+        <v>0.31555249627725135</v>
       </c>
       <c r="EY10" s="12">
         <f>SUMPRODUCT($F$3:$F$9,$EY$3:$EY$9)</f>
-        <v>3.2321968795953102E-2</v>
+        <v>0.33053468934000102</v>
       </c>
       <c r="EZ10" s="12">
         <f>SUMPRODUCT($F$3:$F$9,$EZ$3:$EZ$9)</f>
-        <v>2.1589876692462998E-2</v>
+        <v>0.12488667456654638</v>
       </c>
       <c r="FA10" s="12">
         <f>SUMPRODUCT($F$3:$F$9,$FA$3:$FA$9)</f>
-        <v>3.1795814205560012E-2</v>
+        <v>0.2827981761591844</v>
       </c>
       <c r="FB10" s="12">
         <f>SUMPRODUCT($F$3:$F$9,$FB$3:$FB$9)</f>
-        <v>8.1746884860739263E-2</v>
+        <v>0.5512877744971707</v>
       </c>
       <c r="FC10" s="12">
         <f>SUMPRODUCT($F$3:$F$9,$FC$3:$FC$9)</f>
-        <v>7.1498562672305005E-2</v>
+        <v>0.68734390913852472</v>
       </c>
       <c r="FD10" s="12">
         <f>SUMPRODUCT($F$3:$F$9,$FD$3:$FD$9)</f>
-        <v>3.5703973579757547E-2</v>
+        <v>0.18281758533997738</v>
       </c>
       <c r="FE10" s="12">
         <f>SUMPRODUCT($F$3:$F$9,$FE$3:$FE$9)</f>
-        <v>7.5329260398472458E-2</v>
+        <v>0.26684799269026827</v>
       </c>
       <c r="FF10" s="12">
         <f>SUMPRODUCT($F$3:$F$9,$FF$3:$FF$9)</f>
-        <v>3.7944515210514777E-2</v>
+        <v>0.38609557063495481</v>
       </c>
       <c r="FG10" s="12">
         <f>SUMPRODUCT($F$3:$F$9,$FG$3:$FG$9)</f>
@@ -4719,7 +4737,7 @@
       </c>
       <c r="FH10" s="12">
         <f>SUMPRODUCT($F$3:$F$9,$FH$3:$FH$9)</f>
-        <v>1.6880793108444859E-3</v>
+        <v>0.15315464645511995</v>
       </c>
       <c r="FI10" s="12">
         <f>SUMPRODUCT($F$3:$F$9,$FI$3:$FI$9)</f>
@@ -4735,19 +4753,19 @@
       </c>
       <c r="FL10" s="12">
         <f>SUMPRODUCT($F$3:$F$9,$FL$3:$FL$9)</f>
-        <v>1.008755273025857E-2</v>
+        <v>6.1014335921110449E-3</v>
       </c>
       <c r="FM10" s="12">
         <f>SUMPRODUCT($F$3:$F$9,$FM$3:$FM$9)</f>
-        <v>1.6091561222855228</v>
+        <v>0.97329446318664958</v>
       </c>
       <c r="FN10" s="12">
         <f>SUMPRODUCT($F$3:$F$9,$FN$3:$FN$9)</f>
-        <v>32.972354331300082</v>
+        <v>19.943254395541157</v>
       </c>
       <c r="FO10" s="12">
         <f>SUMPRODUCT($F$3:$F$9,$FO$3:$FO$9)</f>
-        <v>57.679696971842098</v>
+        <v>34.887435049646797</v>
       </c>
       <c r="FP10" s="12">
         <f>SUMPRODUCT($F$3:$F$9,$FP$3:$FP$9)</f>
@@ -4755,19 +4773,25 @@
       </c>
       <c r="FQ10" s="12">
         <f>SUMPRODUCT($F$3:$F$9,$FQ$3:$FQ$9)</f>
-        <v>4.7134682056047331E-2</v>
+        <v>2.850930648298769E-2</v>
       </c>
       <c r="FR10" s="12">
         <f>SUMPRODUCT($F$3:$F$9,$FR$3:$FR$9)</f>
-        <v>0.12320786658371442</v>
+        <v>7.4522001132274807E-2</v>
       </c>
       <c r="FS10" s="12">
         <f>SUMPRODUCT($F$3:$F$9,$FS$3:$FS$9)</f>
-        <v>0.23019263329697534</v>
+        <v>0.13923149677738175</v>
       </c>
       <c r="FT10" s="12">
         <f>SUMPRODUCT($F$3:$F$9,$FT$3:$FT$9)</f>
-        <v>0.45600064500734161</v>
+        <v>0.27581096504471814</v>
+      </c>
+    </row>
+    <row r="13" spans="1:176" x14ac:dyDescent="0.3">
+      <c r="J13">
+        <f>K9*4+L9*9+Q9*4</f>
+        <v>360.28500000000003</v>
       </c>
     </row>
   </sheetData>
@@ -4810,7 +4834,7 @@
       </c>
       <c r="B2">
         <f>Ingredientes!G10</f>
-        <v>54.593215401818092</v>
+        <v>62.973124008572732</v>
       </c>
       <c r="C2" t="s">
         <v>199</v>
@@ -4822,7 +4846,7 @@
       </c>
       <c r="B3">
         <f>Ingredientes!H10</f>
-        <v>159.8881492367569</v>
+        <v>155.19052034133145</v>
       </c>
       <c r="C3" t="s">
         <v>201</v>
@@ -4834,7 +4858,7 @@
       </c>
       <c r="B4">
         <f>Ingredientes!I10</f>
-        <v>669.27740822317924</v>
+        <v>648.61987284434576</v>
       </c>
       <c r="C4" t="s">
         <v>202</v>
@@ -4846,7 +4870,7 @@
       </c>
       <c r="B5">
         <f>Ingredientes!J10</f>
-        <v>0.55105397945912205</v>
+        <v>1.1196567342218415</v>
       </c>
       <c r="C5" t="s">
         <v>199</v>
@@ -4858,7 +4882,7 @@
       </c>
       <c r="B6">
         <f>Ingredientes!K10</f>
-        <v>4.1378770068226309</v>
+        <v>7.4026734808023846</v>
       </c>
       <c r="C6" t="s">
         <v>199</v>
@@ -4870,7 +4894,7 @@
       </c>
       <c r="B7">
         <f>Ingredientes!L10</f>
-        <v>13.690045518248294</v>
+        <v>13.470519131833701</v>
       </c>
       <c r="C7" t="s">
         <v>199</v>
@@ -4882,7 +4906,7 @@
       </c>
       <c r="B8">
         <f>Ingredientes!M10</f>
-        <v>2.1118529871902507</v>
+        <v>12.949395529609784</v>
       </c>
       <c r="C8" t="s">
         <v>199</v>
@@ -4894,7 +4918,7 @@
       </c>
       <c r="B9">
         <f>Ingredientes!N10</f>
-        <v>2.4500695411382942</v>
+        <v>1.8177984650063534</v>
       </c>
       <c r="C9" t="s">
         <v>199</v>
@@ -4906,7 +4930,7 @@
       </c>
       <c r="B10">
         <f>Ingredientes!O10</f>
-        <v>51.814599137271351</v>
+        <v>31.339943809127607</v>
       </c>
       <c r="C10" t="s">
         <v>201</v>
@@ -4918,7 +4942,7 @@
       </c>
       <c r="B11">
         <f>Ingredientes!P10</f>
-        <v>50.469606994796393</v>
+        <v>30.526428335289609</v>
       </c>
       <c r="C11" t="s">
         <v>201</v>
@@ -4930,7 +4954,7 @@
       </c>
       <c r="B12">
         <f>Ingredientes!Q10</f>
-        <v>22.961884710074649</v>
+        <v>14.267790506723117</v>
       </c>
       <c r="C12" t="s">
         <v>199</v>
@@ -4942,7 +4966,7 @@
       </c>
       <c r="B13">
         <f>Ingredientes!R10</f>
-        <v>8.7692431732181082E-4</v>
+        <v>7.9560855301361019E-2</v>
       </c>
       <c r="C13" t="s">
         <v>199</v>
@@ -4954,7 +4978,7 @@
       </c>
       <c r="B14">
         <f>Ingredientes!S10</f>
-        <v>9.2353284478746573</v>
+        <v>5.5859676507085601</v>
       </c>
       <c r="C14" t="s">
         <v>199</v>
@@ -4966,7 +4990,7 @@
       </c>
       <c r="B15">
         <f>Ingredientes!T10</f>
-        <v>8.7692431732181082E-4</v>
+        <v>7.9560855301361019E-2</v>
       </c>
       <c r="C15" t="s">
         <v>199</v>
@@ -4978,7 +5002,7 @@
       </c>
       <c r="B16">
         <f>Ingredientes!U10</f>
-        <v>3.4784664587098517E-3</v>
+        <v>2.1039426179693256E-3</v>
       </c>
       <c r="C16" t="s">
         <v>199</v>
@@ -4990,7 +5014,7 @@
       </c>
       <c r="B17">
         <f>Ingredientes!V10</f>
-        <v>0.18175718017023412</v>
+        <v>0.18896587143576596</v>
       </c>
       <c r="C17" t="s">
         <v>199</v>
@@ -5002,7 +5026,7 @@
       </c>
       <c r="B18">
         <f>Ingredientes!W10</f>
-        <v>0.1930548884583968</v>
+        <v>0.11676881529729759</v>
       </c>
       <c r="C18" t="s">
         <v>199</v>
@@ -5038,7 +5062,7 @@
       </c>
       <c r="B21">
         <f>Ingredientes!Z10</f>
-        <v>5.3398727839540507</v>
+        <v>3.2298100493578921</v>
       </c>
       <c r="C21" t="s">
         <v>199</v>
@@ -5050,7 +5074,7 @@
       </c>
       <c r="B22">
         <f>Ingredientes!AA10</f>
-        <v>0.37741361077001889</v>
+        <v>0.22827777404967184</v>
       </c>
       <c r="C22" t="s">
         <v>199</v>
@@ -5074,7 +5098,7 @@
       </c>
       <c r="B24">
         <f>Ingredientes!AC10</f>
-        <v>2.3010494086524322</v>
+        <v>1.391784562071809</v>
       </c>
       <c r="C24" t="s">
         <v>199</v>
@@ -5086,7 +5110,7 @@
       </c>
       <c r="B25">
         <f>Ingredientes!AD10</f>
-        <v>188.81291580843711</v>
+        <v>133.1703755797547</v>
       </c>
       <c r="C25" t="s">
         <v>224</v>
@@ -5098,7 +5122,7 @@
       </c>
       <c r="B26">
         <f>Ingredientes!AE10</f>
-        <v>2.488325432640742</v>
+        <v>2.1649622983398316</v>
       </c>
       <c r="C26" t="s">
         <v>224</v>
@@ -5110,7 +5134,7 @@
       </c>
       <c r="B27">
         <f>Ingredientes!AF10</f>
-        <v>26.865612219155402</v>
+        <v>20.754340784109985</v>
       </c>
       <c r="C27" t="s">
         <v>224</v>
@@ -5122,7 +5146,7 @@
       </c>
       <c r="B28">
         <f>Ingredientes!AG10</f>
-        <v>65.667366731841895</v>
+        <v>112.42677277913072</v>
       </c>
       <c r="C28" t="s">
         <v>224</v>
@@ -5134,7 +5158,7 @@
       </c>
       <c r="B29">
         <f>Ingredientes!AH10</f>
-        <v>212.11612981311509</v>
+        <v>180.45806101666244</v>
       </c>
       <c r="C29" t="s">
         <v>224</v>
@@ -5146,7 +5170,7 @@
       </c>
       <c r="B30">
         <f>Ingredientes!AI10</f>
-        <v>535.26082033331795</v>
+        <v>374.72594390559959</v>
       </c>
       <c r="C30" t="s">
         <v>224</v>
@@ -5158,7 +5182,7 @@
       </c>
       <c r="B31">
         <f>Ingredientes!AJ10</f>
-        <v>0.88064867942326974</v>
+        <v>1.0226471615697688</v>
       </c>
       <c r="C31" t="s">
         <v>224</v>
@@ -5170,7 +5194,7 @@
       </c>
       <c r="B32">
         <f>Ingredientes!AK10</f>
-        <v>0.18340650975037975</v>
+        <v>0.11093301512527756</v>
       </c>
       <c r="C32" t="s">
         <v>224</v>
@@ -5182,7 +5206,7 @@
       </c>
       <c r="B33">
         <f>Ingredientes!AL10</f>
-        <v>3.2647638671096946</v>
+        <v>1.9746850858427039</v>
       </c>
       <c r="C33" t="s">
         <v>224</v>
@@ -5194,7 +5218,7 @@
       </c>
       <c r="B34">
         <f>Ingredientes!AM10</f>
-        <v>0.21528491990250456</v>
+        <v>19.53218997648413</v>
       </c>
       <c r="C34" t="s">
         <v>234</v>
@@ -5206,7 +5230,7 @@
       </c>
       <c r="B35">
         <f>Ingredientes!AN10</f>
-        <v>0.67689648352596998</v>
+        <v>12.698654229098807</v>
       </c>
       <c r="C35" t="s">
         <v>234</v>
@@ -5218,7 +5242,7 @@
       </c>
       <c r="B36">
         <f>Ingredientes!AO10</f>
-        <v>2.7449021648027597E-2</v>
+        <v>1.6602479038497771E-2</v>
       </c>
       <c r="C36" t="s">
         <v>234</v>
@@ -5230,7 +5254,7 @@
       </c>
       <c r="B37">
         <f>Ingredientes!AP10</f>
-        <v>4.163928966749734E-3</v>
+        <v>3.2945266170790244E-2</v>
       </c>
       <c r="C37" t="s">
         <v>224</v>
@@ -5242,7 +5266,7 @@
       </c>
       <c r="B38">
         <f>Ingredientes!AQ10</f>
-        <v>8.96801268514439E-3</v>
+        <v>0.17099307422318843</v>
       </c>
       <c r="C38" t="s">
         <v>224</v>
@@ -5254,7 +5278,7 @@
       </c>
       <c r="B39">
         <f>Ingredientes!AR10</f>
-        <v>0.23166586615007614</v>
+        <v>0.14012257835675709</v>
       </c>
       <c r="C39" t="s">
         <v>224</v>
@@ -5266,7 +5290,7 @@
       </c>
       <c r="B40">
         <f>Ingredientes!AS10</f>
-        <v>2.7756116183764199E-2</v>
+        <v>4.1682816101886393E-2</v>
       </c>
       <c r="C40" t="s">
         <v>224</v>
@@ -5278,7 +5302,7 @@
       </c>
       <c r="B41">
         <f>Ingredientes!AT10</f>
-        <v>1.3548480702621983</v>
+        <v>28.875286417373957</v>
       </c>
       <c r="C41" t="s">
         <v>234</v>
@@ -5290,7 +5314,7 @@
       </c>
       <c r="B42">
         <f>Ingredientes!AU10</f>
-        <v>3.4083125133241063</v>
+        <v>134.43751324072309</v>
       </c>
       <c r="C42" t="s">
         <v>224</v>
@@ -5302,7 +5326,7 @@
       </c>
       <c r="B43">
         <f>Ingredientes!AV10</f>
-        <v>2.6307729519654322E-3</v>
+        <v>0.23868256590408302</v>
       </c>
       <c r="C43" t="s">
         <v>224</v>
@@ -5314,7 +5338,7 @@
       </c>
       <c r="B44">
         <f>Ingredientes!AW10</f>
-        <v>1.3548480702621977</v>
+        <v>122.92152144060276</v>
       </c>
       <c r="C44" t="s">
         <v>224</v>
@@ -5326,7 +5350,7 @@
       </c>
       <c r="B45">
         <f>Ingredientes!AX10</f>
-        <v>8.7692431732181082E-4</v>
+        <v>7.9560855301361019E-2</v>
       </c>
       <c r="C45" t="s">
         <v>224</v>
@@ -5338,7 +5362,7 @@
       </c>
       <c r="B46">
         <f>Ingredientes!AY10</f>
-        <v>8.7692431732181082E-4</v>
+        <v>7.9560855301361019E-2</v>
       </c>
       <c r="C46" t="s">
         <v>224</v>
@@ -5350,7 +5374,7 @@
       </c>
       <c r="B47">
         <f>Ingredientes!AZ10</f>
-        <v>0.11005400182388726</v>
+        <v>9.9848873403208067</v>
       </c>
       <c r="C47" t="s">
         <v>224</v>
@@ -5362,7 +5386,7 @@
       </c>
       <c r="B48">
         <f>Ingredientes!BA10</f>
-        <v>0.67961634592440379</v>
+        <v>0.52961009345606003</v>
       </c>
       <c r="C48" t="s">
         <v>224</v>
@@ -5374,7 +5398,7 @@
       </c>
       <c r="B49">
         <f>Ingredientes!BB10</f>
-        <v>4.4723140183412355E-3</v>
+        <v>0.40576036203694116</v>
       </c>
       <c r="C49" t="s">
         <v>234</v>
@@ -5386,7 +5410,7 @@
       </c>
       <c r="B50">
         <f>Ingredientes!BC10</f>
-        <v>3.3980817296220187</v>
+        <v>73.182726734701902</v>
       </c>
       <c r="C50" t="s">
         <v>234</v>
@@ -5398,7 +5422,7 @@
       </c>
       <c r="B51">
         <f>Ingredientes!BD10</f>
-        <v>0.78484726400302063</v>
+        <v>71.206965494718105</v>
       </c>
       <c r="C51" t="s">
         <v>234</v>
@@ -5410,7 +5434,7 @@
       </c>
       <c r="B52">
         <f>Ingredientes!BE10</f>
-        <v>19.47941216877517</v>
+        <v>11.782078660628224</v>
       </c>
       <c r="C52" t="s">
         <v>234</v>
@@ -5446,7 +5470,7 @@
       </c>
       <c r="B55">
         <f>Ingredientes!BH10</f>
-        <v>0.17392332293549259</v>
+        <v>0.10519713089846629</v>
       </c>
       <c r="C55" t="s">
         <v>234</v>
@@ -5458,7 +5482,7 @@
       </c>
       <c r="B56">
         <f>Ingredientes!BI10</f>
-        <v>22.493108739304464</v>
+        <v>18.741885480490616</v>
       </c>
       <c r="C56" t="s">
         <v>234</v>
@@ -5470,7 +5494,7 @@
       </c>
       <c r="B57">
         <f>Ingredientes!BJ10</f>
-        <v>5.7000080625917701E-2</v>
+        <v>5.1714555945884655</v>
       </c>
       <c r="C57" t="s">
         <v>234</v>
@@ -5482,7 +5506,7 @@
       </c>
       <c r="B58">
         <f>Ingredientes!BK10</f>
-        <v>2.6088498440323891</v>
+        <v>1.5779569634769943</v>
       </c>
       <c r="C58" t="s">
         <v>234</v>
@@ -5518,7 +5542,7 @@
       </c>
       <c r="B61">
         <f>Ingredientes!BN10</f>
-        <v>0.24992343043671608</v>
+        <v>22.674843760887889</v>
       </c>
       <c r="C61" t="s">
         <v>234</v>
@@ -5530,7 +5554,7 @@
       </c>
       <c r="B62">
         <f>Ingredientes!BO10</f>
-        <v>1.0084629649200825</v>
+        <v>91.494983596565163</v>
       </c>
       <c r="C62" t="s">
         <v>234</v>
@@ -5542,7 +5566,7 @@
       </c>
       <c r="B63">
         <f>Ingredientes!BP10</f>
-        <v>1.0040783433334732</v>
+        <v>91.097179320058359</v>
       </c>
       <c r="C63" t="s">
         <v>234</v>
@@ -5554,7 +5578,7 @@
       </c>
       <c r="B64">
         <f>Ingredientes!BQ10</f>
-        <v>0.43144676412233091</v>
+        <v>39.143940808269619</v>
       </c>
       <c r="C64" t="s">
         <v>265</v>
@@ -5566,7 +5590,7 @@
       </c>
       <c r="B65">
         <f>Ingredientes!BR10</f>
-        <v>1.0786169103058272E-2</v>
+        <v>0.97859852020674043</v>
       </c>
       <c r="C65" t="s">
         <v>234</v>
@@ -5590,7 +5614,7 @@
       </c>
       <c r="B67">
         <f>Ingredientes!BT10</f>
-        <v>1.0786169103058272E-2</v>
+        <v>0.97859852020674043</v>
       </c>
       <c r="C67" t="s">
         <v>234</v>
@@ -5602,7 +5626,7 @@
       </c>
       <c r="B68">
         <f>Ingredientes!BU10</f>
-        <v>2.4553880885010704E-3</v>
+        <v>0.22277039484381086</v>
       </c>
       <c r="C68" t="s">
         <v>234</v>
@@ -5614,7 +5638,7 @@
       </c>
       <c r="B69">
         <f>Ingredientes!BV10</f>
-        <v>0.66090862715487186</v>
+        <v>0.39974909741417186</v>
       </c>
       <c r="C69" t="s">
         <v>224</v>
@@ -5626,7 +5650,7 @@
       </c>
       <c r="B70">
         <f>Ingredientes!BW10</f>
-        <v>6.2264549610906342E-2</v>
+        <v>3.7660572861650927E-2</v>
       </c>
       <c r="C70" t="s">
         <v>224</v>
@@ -5650,7 +5674,7 @@
       </c>
       <c r="B72">
         <f>Ingredientes!BY10</f>
-        <v>1.0435399376129555</v>
+        <v>0.63118278539079775</v>
       </c>
       <c r="C72" t="s">
         <v>234</v>
@@ -5662,7 +5686,7 @@
       </c>
       <c r="B73">
         <f>Ingredientes!BZ10</f>
-        <v>1.0435399376129555</v>
+        <v>0.63118278539079775</v>
       </c>
       <c r="C73" t="s">
         <v>234</v>
@@ -5686,7 +5710,7 @@
       </c>
       <c r="B75">
         <f>Ingredientes!CB10</f>
-        <v>51.307380265970316</v>
+        <v>31.033153615047556</v>
       </c>
       <c r="C75" t="s">
         <v>265</v>
@@ -5698,7 +5722,7 @@
       </c>
       <c r="B76">
         <f>Ingredientes!CC10</f>
-        <v>38.610977691679352</v>
+        <v>23.353763059459517</v>
       </c>
       <c r="C76" t="s">
         <v>234</v>
@@ -5710,7 +5734,7 @@
       </c>
       <c r="B77">
         <f>Ingredientes!CD10</f>
-        <v>2.967628813059318</v>
+        <v>1.7949636163589724</v>
       </c>
       <c r="C77" t="s">
         <v>224</v>
@@ -5734,7 +5758,7 @@
       </c>
       <c r="B79">
         <f>Ingredientes!CF10</f>
-        <v>14.805113249344133</v>
+        <v>8.9548394670191875</v>
       </c>
       <c r="C79" t="s">
         <v>234</v>
@@ -5746,7 +5770,7 @@
       </c>
       <c r="B80">
         <f>Ingredientes!CG10</f>
-        <v>4.0776980755464202E-2</v>
+        <v>2.466386514342191E-2</v>
       </c>
       <c r="C80" t="s">
         <v>224</v>
@@ -5758,7 +5782,7 @@
       </c>
       <c r="B81">
         <f>Ingredientes!CH10</f>
-        <v>6.9554129152696751</v>
+        <v>4.2069658660551674</v>
       </c>
       <c r="C81" t="s">
         <v>224</v>
@@ -5770,7 +5794,7 @@
       </c>
       <c r="B82">
         <f>Ingredientes!CI10</f>
-        <v>0.6577516996125129</v>
+        <v>0.39783963688693896</v>
       </c>
       <c r="C82" t="s">
         <v>224</v>
@@ -5782,7 +5806,7 @@
       </c>
       <c r="B83">
         <f>Ingredientes!CJ10</f>
-        <v>3.9461594279481477E-3</v>
+        <v>2.3868256590408301E-3</v>
       </c>
       <c r="C83" t="s">
         <v>224</v>
@@ -5794,7 +5818,7 @@
       </c>
       <c r="B84">
         <f>Ingredientes!CK10</f>
-        <v>3.5076972692872431E-2</v>
+        <v>2.1216228080362935E-2</v>
       </c>
       <c r="C84" t="s">
         <v>224</v>
@@ -5818,7 +5842,7 @@
       </c>
       <c r="B86">
         <f>Ingredientes!CM10</f>
-        <v>1.3153864759827161E-3</v>
+        <v>7.9560855301361011E-4</v>
       </c>
       <c r="C86" t="s">
         <v>224</v>
@@ -5854,7 +5878,7 @@
       </c>
       <c r="B89">
         <f>Ingredientes!CP10</f>
-        <v>1.3694707832535389</v>
+        <v>2.0928085182746505</v>
       </c>
       <c r="C89" t="s">
         <v>199</v>
@@ -5866,7 +5890,7 @@
       </c>
       <c r="B90">
         <f>Ingredientes!CQ10</f>
-        <v>3.3498508921693182E-3</v>
+        <v>1.4671021717570971E-2</v>
       </c>
       <c r="C90" t="s">
         <v>199</v>
@@ -5878,7 +5902,7 @@
       </c>
       <c r="B91">
         <f>Ingredientes!CR10</f>
-        <v>0.81942146675396188</v>
+        <v>1.4123784474618142</v>
       </c>
       <c r="C91" t="s">
         <v>199</v>
@@ -5890,7 +5914,7 @@
       </c>
       <c r="B92">
         <f>Ingredientes!CS10</f>
-        <v>0.37368229779981438</v>
+        <v>0.5472796754089887</v>
       </c>
       <c r="C92" t="s">
         <v>199</v>
@@ -5902,7 +5926,7 @@
       </c>
       <c r="B93">
         <f>Ingredientes!CT10</f>
-        <v>8.8664414645500589</v>
+        <v>6.7972498483296571</v>
       </c>
       <c r="C93" t="s">
         <v>199</v>
@@ -5914,7 +5938,7 @@
       </c>
       <c r="B94">
         <f>Ingredientes!CU10</f>
-        <v>2.7973885722565764E-3</v>
+        <v>9.5738229212637749E-2</v>
       </c>
       <c r="C94" t="s">
         <v>199</v>
@@ -5926,7 +5950,7 @@
       </c>
       <c r="B95">
         <f>Ingredientes!CV10</f>
-        <v>8.6444042274041735</v>
+        <v>6.5523084951418671</v>
       </c>
       <c r="C95" t="s">
         <v>199</v>
@@ -5938,7 +5962,7 @@
       </c>
       <c r="B96">
         <f>Ingredientes!CW10</f>
-        <v>4.9843384349012094</v>
+        <v>3.7339429889274478</v>
       </c>
       <c r="C96" t="s">
         <v>199</v>
@@ -5950,7 +5974,7 @@
       </c>
       <c r="B97">
         <f>Ingredientes!CX10</f>
-        <v>1.1222877413084533</v>
+        <v>1.2557354995064811</v>
       </c>
       <c r="C97" t="s">
         <v>199</v>
@@ -5962,7 +5986,7 @@
       </c>
       <c r="B98">
         <f>Ingredientes!CY10</f>
-        <v>3.5741681325402368</v>
+        <v>2.7387498423238505</v>
       </c>
       <c r="C98" t="s">
         <v>199</v>
@@ -5974,7 +5998,7 @@
       </c>
       <c r="B99">
         <f>Ingredientes!CZ10</f>
-        <v>0.14517920535421239</v>
+        <v>9.2157990724076502E-2</v>
       </c>
       <c r="C99" t="s">
         <v>199</v>
@@ -5986,7 +6010,7 @@
       </c>
       <c r="B100">
         <f>Ingredientes!DA10</f>
-        <v>4.8230837452699591E-5</v>
+        <v>4.3758470415748551E-3</v>
       </c>
       <c r="C100" t="s">
         <v>199</v>
@@ -5998,7 +6022,7 @@
       </c>
       <c r="B101">
         <f>Ingredientes!DB10</f>
-        <v>8.7692431732181079E-5</v>
+        <v>7.9560855301361016E-3</v>
       </c>
       <c r="C101" t="s">
         <v>199</v>
@@ -6010,7 +6034,7 @@
       </c>
       <c r="B102">
         <f>Ingredientes!DC10</f>
-        <v>8.7692431732181079E-5</v>
+        <v>7.9560855301361016E-3</v>
       </c>
       <c r="C102" t="s">
         <v>199</v>
@@ -6022,7 +6046,7 @@
       </c>
       <c r="B103">
         <f>Ingredientes!DD10</f>
-        <v>1.8020794720963211</v>
+        <v>163.49755764429688</v>
       </c>
       <c r="C103" t="s">
         <v>224</v>
@@ -6070,7 +6094,7 @@
       </c>
       <c r="B107">
         <f>Ingredientes!DH10</f>
-        <v>5.217699688064778E-4</v>
+        <v>3.1559139269539887E-4</v>
       </c>
       <c r="C107" t="s">
         <v>199</v>
@@ -6082,7 +6106,7 @@
       </c>
       <c r="B108">
         <f>Ingredientes!DI10</f>
-        <v>1.0435399376129556E-3</v>
+        <v>6.3118278539079774E-4</v>
       </c>
       <c r="C108" t="s">
         <v>199</v>
@@ -6094,7 +6118,7 @@
       </c>
       <c r="B109">
         <f>Ingredientes!DJ10</f>
-        <v>2.8323193908965618E-2</v>
+        <v>1.7131220165389722E-2</v>
       </c>
       <c r="C109" t="s">
         <v>199</v>
@@ -6106,7 +6130,7 @@
       </c>
       <c r="B110">
         <f>Ingredientes!DK10</f>
-        <v>8.1645073947498137</v>
+        <v>4.9382839439282566</v>
       </c>
       <c r="C110" t="s">
         <v>199</v>
@@ -6118,7 +6142,7 @@
       </c>
       <c r="B111">
         <f>Ingredientes!DL10</f>
-        <v>0.17323639888692369</v>
+        <v>0.10478164643189244</v>
       </c>
       <c r="C111" t="s">
         <v>199</v>
@@ -6142,7 +6166,7 @@
       </c>
       <c r="B113">
         <f>Ingredientes!DN10</f>
-        <v>2.5075446238143133</v>
+        <v>1.5166827287618982</v>
       </c>
       <c r="C113" t="s">
         <v>199</v>
@@ -6154,7 +6178,7 @@
       </c>
       <c r="B114">
         <f>Ingredientes!DO10</f>
-        <v>1.2037817796576982</v>
+        <v>0.7281047033284187</v>
       </c>
       <c r="C114" t="s">
         <v>199</v>
@@ -6226,7 +6250,7 @@
       </c>
       <c r="B120">
         <f>Ingredientes!DU10</f>
-        <v>5.1957765801317286E-2</v>
+        <v>3.1426537844037601E-2</v>
       </c>
       <c r="C120" t="s">
         <v>199</v>
@@ -6250,7 +6274,7 @@
       </c>
       <c r="B122">
         <f>Ingredientes!DW10</f>
-        <v>3.069235110626338E-4</v>
+        <v>1.8564199570317568E-4</v>
       </c>
       <c r="C122" t="s">
         <v>199</v>
@@ -6262,7 +6286,7 @@
       </c>
       <c r="B123">
         <f>Ingredientes!DX10</f>
-        <v>2.5538959201468887E-2</v>
+        <v>1.5447182061510923E-2</v>
       </c>
       <c r="C123" t="s">
         <v>199</v>
@@ -6274,7 +6298,7 @@
       </c>
       <c r="B124">
         <f>Ingredientes!DY10</f>
-        <v>9.1945514671191858E-2</v>
+        <v>5.5613037855651345E-2</v>
       </c>
       <c r="C124" t="s">
         <v>199</v>
@@ -6286,7 +6310,7 @@
       </c>
       <c r="B125">
         <f>Ingredientes!DZ10</f>
-        <v>5.0116224734941484E-2</v>
+        <v>3.0312685869818546E-2</v>
       </c>
       <c r="C125" t="s">
         <v>199</v>
@@ -6298,7 +6322,7 @@
       </c>
       <c r="B126">
         <f>Ingredientes!EA10</f>
-        <v>2.7184653836976134E-3</v>
+        <v>1.6442576762281274E-3</v>
       </c>
       <c r="C126" t="s">
         <v>199</v>
@@ -6358,7 +6382,7 @@
       </c>
       <c r="B131">
         <f>Ingredientes!EF10</f>
-        <v>1.3489127541744579</v>
+        <v>0.8158868470109204</v>
       </c>
       <c r="C131" t="s">
         <v>199</v>
@@ -6394,7 +6418,7 @@
       </c>
       <c r="B134">
         <f>Ingredientes!EI10</f>
-        <v>3.9461594279481477E-3</v>
+        <v>2.3868256590408301E-3</v>
       </c>
       <c r="C134" t="s">
         <v>199</v>
@@ -6406,7 +6430,7 @@
       </c>
       <c r="B135">
         <f>Ingredientes!EJ10</f>
-        <v>3.9461594279481477E-3</v>
+        <v>2.3868256590408301E-3</v>
       </c>
       <c r="C135" t="s">
         <v>199</v>
@@ -6418,7 +6442,7 @@
       </c>
       <c r="B136">
         <f>Ingredientes!EK10</f>
-        <v>4.5220063963228077</v>
+        <v>2.7351254033601236</v>
       </c>
       <c r="C136" t="s">
         <v>224</v>
@@ -6430,7 +6454,7 @@
       </c>
       <c r="B137">
         <f>Ingredientes!EL10</f>
-        <v>4.8011606373369133E-2</v>
+        <v>2.9039712184996767E-2</v>
       </c>
       <c r="C137" t="s">
         <v>199</v>
@@ -6442,7 +6466,7 @@
       </c>
       <c r="B138">
         <f>Ingredientes!EM10</f>
-        <v>4.8011606373369133E-2</v>
+        <v>2.9039712184996767E-2</v>
       </c>
       <c r="C138" t="s">
         <v>199</v>
@@ -6454,7 +6478,7 @@
       </c>
       <c r="B139">
         <f>Ingredientes!EN10</f>
-        <v>5.4807769832613173E-4</v>
+        <v>3.3150356375567086E-4</v>
       </c>
       <c r="C139" t="s">
         <v>199</v>
@@ -6466,7 +6490,7 @@
       </c>
       <c r="B140">
         <f>Ingredientes!EO10</f>
-        <v>1.3153864759827162E-2</v>
+        <v>7.9560855301360998E-3</v>
       </c>
       <c r="C140" t="s">
         <v>199</v>
@@ -6478,7 +6502,7 @@
       </c>
       <c r="B141">
         <f>Ingredientes!EP10</f>
-        <v>9.2500900072162405E-3</v>
+        <v>7.1190169314154492E-2</v>
       </c>
       <c r="C141" t="s">
         <v>199</v>
@@ -6490,7 +6514,7 @@
       </c>
       <c r="B142">
         <f>Ingredientes!EQ10</f>
-        <v>2.6258037141672772E-2</v>
+        <v>0.25060255004723359</v>
       </c>
       <c r="C142" t="s">
         <v>199</v>
@@ -6502,7 +6526,7 @@
       </c>
       <c r="B143">
         <f>Ingredientes!ER10</f>
-        <v>2.8093732045933094E-2</v>
+        <v>0.26040621543936798</v>
       </c>
       <c r="C143" t="s">
         <v>199</v>
@@ -6514,7 +6538,7 @@
       </c>
       <c r="B144">
         <f>Ingredientes!ES10</f>
-        <v>4.8606453368619129E-2</v>
+        <v>0.44430936444945729</v>
       </c>
       <c r="C144" t="s">
         <v>199</v>
@@ -6526,7 +6550,7 @@
       </c>
       <c r="B145">
         <f>Ingredientes!ET10</f>
-        <v>4.5911372633383435E-2</v>
+        <v>0.35653606086198908</v>
       </c>
       <c r="C145" t="s">
         <v>199</v>
@@ -6538,7 +6562,7 @@
       </c>
       <c r="B146">
         <f>Ingredientes!EU10</f>
-        <v>1.5398791012171007E-2</v>
+        <v>0.17448756378992486</v>
       </c>
       <c r="C146" t="s">
         <v>199</v>
@@ -6550,7 +6574,7 @@
       </c>
       <c r="B147">
         <f>Ingredientes!EV10</f>
-        <v>2.828665539574389E-2</v>
+        <v>0.27790960360566741</v>
       </c>
       <c r="C147" t="s">
         <v>199</v>
@@ -6562,7 +6586,7 @@
       </c>
       <c r="B148">
         <f>Ingredientes!EW10</f>
-        <v>2.5898498171570829E-2</v>
+        <v>0.21798259937367562</v>
       </c>
       <c r="C148" t="s">
         <v>199</v>
@@ -6574,7 +6598,7 @@
       </c>
       <c r="B149">
         <f>Ingredientes!EX10</f>
-        <v>4.2177136582121383E-2</v>
+        <v>0.31555249627725135</v>
       </c>
       <c r="C149" t="s">
         <v>199</v>
@@ -6586,7 +6610,7 @@
       </c>
       <c r="B150">
         <f>Ingredientes!EY10</f>
-        <v>3.2321968795953102E-2</v>
+        <v>0.33053468934000102</v>
       </c>
       <c r="C150" t="s">
         <v>199</v>
@@ -6598,7 +6622,7 @@
       </c>
       <c r="B151">
         <f>Ingredientes!EZ10</f>
-        <v>2.1589876692462998E-2</v>
+        <v>0.12488667456654638</v>
       </c>
       <c r="C151" t="s">
         <v>199</v>
@@ -6610,7 +6634,7 @@
       </c>
       <c r="B152">
         <f>Ingredientes!FA10</f>
-        <v>3.1795814205560012E-2</v>
+        <v>0.2827981761591844</v>
       </c>
       <c r="C152" t="s">
         <v>199</v>
@@ -6622,7 +6646,7 @@
       </c>
       <c r="B153">
         <f>Ingredientes!FB10</f>
-        <v>8.1746884860739263E-2</v>
+        <v>0.5512877744971707</v>
       </c>
       <c r="C153" t="s">
         <v>199</v>
@@ -6634,7 +6658,7 @@
       </c>
       <c r="B154">
         <f>Ingredientes!FC10</f>
-        <v>7.1498562672305005E-2</v>
+        <v>0.68734390913852472</v>
       </c>
       <c r="C154" t="s">
         <v>199</v>
@@ -6646,7 +6670,7 @@
       </c>
       <c r="B155">
         <f>Ingredientes!FD10</f>
-        <v>3.5703973579757547E-2</v>
+        <v>0.18281758533997738</v>
       </c>
       <c r="C155" t="s">
         <v>199</v>
@@ -6658,7 +6682,7 @@
       </c>
       <c r="B156">
         <f>Ingredientes!FE10</f>
-        <v>7.5329260398472458E-2</v>
+        <v>0.26684799269026827</v>
       </c>
       <c r="C156" t="s">
         <v>199</v>
@@ -6670,7 +6694,7 @@
       </c>
       <c r="B157">
         <f>Ingredientes!FF10</f>
-        <v>3.7944515210514777E-2</v>
+        <v>0.38609557063495481</v>
       </c>
       <c r="C157" t="s">
         <v>199</v>
@@ -6694,7 +6718,7 @@
       </c>
       <c r="B159">
         <f>Ingredientes!FH10</f>
-        <v>1.6880793108444859E-3</v>
+        <v>0.15315464645511995</v>
       </c>
       <c r="C159" t="s">
         <v>199</v>
@@ -6742,7 +6766,7 @@
       </c>
       <c r="B163">
         <f>Ingredientes!FL10</f>
-        <v>1.008755273025857E-2</v>
+        <v>6.1014335921110449E-3</v>
       </c>
       <c r="C163" t="s">
         <v>199</v>
@@ -6754,7 +6778,7 @@
       </c>
       <c r="B164">
         <f>Ingredientes!FM10</f>
-        <v>1.6091561222855228</v>
+        <v>0.97329446318664958</v>
       </c>
       <c r="C164" t="s">
         <v>224</v>
@@ -6766,7 +6790,7 @@
       </c>
       <c r="B165">
         <f>Ingredientes!FN10</f>
-        <v>32.972354331300082</v>
+        <v>19.943254395541157</v>
       </c>
       <c r="C165" t="s">
         <v>224</v>
@@ -6778,7 +6802,7 @@
       </c>
       <c r="B166">
         <f>Ingredientes!FO10</f>
-        <v>57.679696971842098</v>
+        <v>34.887435049646797</v>
       </c>
       <c r="C166" t="s">
         <v>224</v>
@@ -6802,7 +6826,7 @@
       </c>
       <c r="B168">
         <f>Ingredientes!FQ10</f>
-        <v>4.7134682056047331E-2</v>
+        <v>2.850930648298769E-2</v>
       </c>
       <c r="C168" t="s">
         <v>224</v>
@@ -6814,7 +6838,7 @@
       </c>
       <c r="B169">
         <f>Ingredientes!FR10</f>
-        <v>0.12320786658371442</v>
+        <v>7.4522001132274807E-2</v>
       </c>
       <c r="C169" t="s">
         <v>224</v>
@@ -6826,7 +6850,7 @@
       </c>
       <c r="B170">
         <f>Ingredientes!FS10</f>
-        <v>0.23019263329697534</v>
+        <v>0.13923149677738175</v>
       </c>
       <c r="C170" t="s">
         <v>224</v>
@@ -6838,7 +6862,7 @@
       </c>
       <c r="B171">
         <f>Ingredientes!FT10</f>
-        <v>0.45600064500734161</v>
+        <v>0.27581096504471814</v>
       </c>
       <c r="C171" t="s">
         <v>224</v>

--- a/saves/Lentejas y cosas_full.xlsx
+++ b/saves/Lentejas y cosas_full.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://correoucuedu-my.sharepoint.com/personal/jose_torres_correo_ucu_edu_uy/Documents/VS CODE/Programacion II/food_formulator/saves/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_9C3D2CFC7BA45F338F7FE7B4205BDA1636430EF9" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A1E5F943-06AC-477E-9250-35E1E656A49E}"/>
+  <xr:revisionPtr revIDLastSave="14" documentId="11_9C3D2CFC7BA45F338F7FE7B4205BDA1636430EF9" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0179710D-7ED8-46BC-BB64-CBF023646B74}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1578,13 +1578,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:FT13"/>
+  <dimension ref="A1:FT17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="6" ySplit="2" topLeftCell="G3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J14" sqref="J14"/>
+      <selection pane="bottomRight" activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3594,6 +3594,10 @@
         <f t="shared" si="0"/>
         <v>1.3260142550226834E-2</v>
       </c>
+      <c r="H7">
+        <f>K7*4+L7*9+Q7*4</f>
+        <v>851.4</v>
+      </c>
       <c r="L7">
         <v>94.6</v>
       </c>
@@ -4029,6 +4033,10 @@
       <c r="G9">
         <v>9.4510000000000005</v>
       </c>
+      <c r="H9">
+        <f>K9*4+L9*9+Q9*4</f>
+        <v>360.28500000000003</v>
+      </c>
       <c r="J9">
         <v>3.7709999999999999</v>
       </c>
@@ -4113,7 +4121,7 @@
       </c>
       <c r="H10" s="12">
         <f>SUMPRODUCT($F$3:$F$9,$H$3:$H$9)</f>
-        <v>155.19052034133145</v>
+        <v>197.8201495177222</v>
       </c>
       <c r="I10" s="12">
         <f>SUMPRODUCT($F$3:$F$9,$I$3:$I$9)</f>
@@ -4790,8 +4798,20 @@
     </row>
     <row r="13" spans="1:176" x14ac:dyDescent="0.3">
       <c r="J13">
-        <f>K9*4+L9*9+Q9*4</f>
-        <v>360.28500000000003</v>
+        <f>K3*4+L3*9+Q3*4</f>
+        <v>143.08000000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:176" x14ac:dyDescent="0.3">
+      <c r="I16">
+        <f>I3/H3</f>
+        <v>4.1689189189189193</v>
+      </c>
+    </row>
+    <row r="17" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I17">
+        <f>I6/H6</f>
+        <v>4.1843891402714934</v>
       </c>
     </row>
   </sheetData>
@@ -4846,7 +4866,7 @@
       </c>
       <c r="B3">
         <f>Ingredientes!H10</f>
-        <v>155.19052034133145</v>
+        <v>197.8201495177222</v>
       </c>
       <c r="C3" t="s">
         <v>201</v>

--- a/saves/Lentejas y cosas_full.xlsx
+++ b/saves/Lentejas y cosas_full.xlsx
@@ -1581,10 +1581,10 @@
   <dimension ref="A1:FT17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="6" ySplit="2" topLeftCell="G3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H8" sqref="H8"/>
+      <selection pane="bottomRight" activeCell="T2" sqref="T2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/saves/Lentejas y cosas_full.xlsx
+++ b/saves/Lentejas y cosas_full.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -1251,10 +1251,19 @@
     <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="10" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1265,15 +1274,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1581,10 +1581,10 @@
   <dimension ref="A1:FT17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="6" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="2" topLeftCell="Q3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="T2" sqref="T2"/>
+      <selection pane="bottomRight" activeCell="AA2" sqref="AA2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1597,7 +1597,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:176" x14ac:dyDescent="0.3">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="14"/>
@@ -1605,7 +1605,7 @@
       <c r="D1" s="14"/>
       <c r="E1" s="14"/>
       <c r="F1" s="14"/>
-      <c r="G1" s="15" t="s">
+      <c r="G1" s="18" t="s">
         <v>1</v>
       </c>
       <c r="H1" s="14"/>
@@ -1617,7 +1617,7 @@
       <c r="N1" s="14"/>
       <c r="O1" s="14"/>
       <c r="P1" s="14"/>
-      <c r="Q1" s="21" t="s">
+      <c r="Q1" s="16" t="s">
         <v>2</v>
       </c>
       <c r="R1" s="14"/>
@@ -1632,7 +1632,7 @@
       <c r="AA1" s="14"/>
       <c r="AB1" s="14"/>
       <c r="AC1" s="14"/>
-      <c r="AD1" s="17" t="s">
+      <c r="AD1" s="20" t="s">
         <v>3</v>
       </c>
       <c r="AE1" s="14"/>
@@ -1646,7 +1646,7 @@
       <c r="AM1" s="14"/>
       <c r="AN1" s="14"/>
       <c r="AO1" s="14"/>
-      <c r="AP1" s="13" t="s">
+      <c r="AP1" s="17" t="s">
         <v>4</v>
       </c>
       <c r="AQ1" s="14"/>
@@ -1700,7 +1700,7 @@
       <c r="CM1" s="14"/>
       <c r="CN1" s="14"/>
       <c r="CO1" s="14"/>
-      <c r="CP1" s="16" t="s">
+      <c r="CP1" s="19" t="s">
         <v>5</v>
       </c>
       <c r="CQ1" s="14"/>
@@ -1754,7 +1754,7 @@
       <c r="EM1" s="14"/>
       <c r="EN1" s="14"/>
       <c r="EO1" s="14"/>
-      <c r="EP1" s="20" t="s">
+      <c r="EP1" s="15" t="s">
         <v>6</v>
       </c>
       <c r="EQ1" s="14"/>
@@ -1779,7 +1779,7 @@
       <c r="FJ1" s="14"/>
       <c r="FK1" s="14"/>
       <c r="FL1" s="14"/>
-      <c r="FM1" s="19" t="s">
+      <c r="FM1" s="13" t="s">
         <v>7</v>
       </c>
       <c r="FN1" s="14"/>
@@ -4816,6 +4816,7 @@
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="A1:F1"/>
     <mergeCell ref="FM1:FT1"/>
     <mergeCell ref="EP1:FL1"/>
     <mergeCell ref="Q1:AC1"/>
@@ -4823,7 +4824,6 @@
     <mergeCell ref="G1:P1"/>
     <mergeCell ref="CP1:EO1"/>
     <mergeCell ref="AD1:AO1"/>
-    <mergeCell ref="A1:F1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
